--- a/Data/Networks/Networks_agent_Player risk aversion.xlsx_10_10_2.xlsx
+++ b/Data/Networks/Networks_agent_Player risk aversion.xlsx_10_10_2.xlsx
@@ -426,7 +426,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.769777100183807</v>
+        <v>1.301220477151379</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.7806046922918746</v>
+        <v>1.301220477151379</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7806046922918746</v>
+        <v>1.301220477151379</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7806046922918746</v>
+        <v>1.287251524255946</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7806046922918746</v>
+        <v>0.4644739439092413</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -511,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.7806046922918746</v>
+        <v>0.03827017485439566</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.769777100183807</v>
+        <v>0.03827017485439566</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.106553075857059</v>
+        <v>1.287251524255946</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -562,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7806046922918746</v>
+        <v>1.287251524255946</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -579,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7806046922918746</v>
+        <v>1.75435043396964</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -596,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>1.435223524293058</v>
+        <v>1.750965156059045</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -613,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>1.508581179637434</v>
+        <v>0.0754350933012784</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -630,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>1.581938834981809</v>
+        <v>0.5987862964855255</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -647,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>1.435223524293058</v>
+        <v>0.5987862964855255</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -664,7 +664,7 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>1.508581179637434</v>
+        <v>0.5987862964855255</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -681,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0.05533725188509542</v>
+        <v>1.750965156059045</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>0.05533725188509542</v>
+        <v>1.750965156059045</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1.545260007309621</v>
+        <v>1.750965156059045</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1.435223524293058</v>
+        <v>0.5987862964855255</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -749,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>0.05533725188509542</v>
+        <v>0.5987862964855255</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -766,7 +766,7 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>1.212426176194666</v>
+        <v>0.1647055448786723</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -783,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>1.745518361656605</v>
+        <v>1.167481835480579</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>1.719673700066733</v>
+        <v>1.167481835480579</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -817,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>1.719673700066733</v>
+        <v>0.1647055448786723</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>1.212426176194666</v>
+        <v>0.1647055448786723</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>1.719673700066733</v>
+        <v>1.19785836496207</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>1.212426176194666</v>
+        <v>0.1647055448786723</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>1.581315152870039</v>
+        <v>0.1647055448786723</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1.581315152870039</v>
+        <v>1.167481835480579</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -919,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>1.212426176194666</v>
+        <v>0.1647055448786723</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -936,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>1.968998114338261</v>
+        <v>0.7154661794051446</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -953,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>1.968998114338261</v>
+        <v>0.7154661794051446</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -970,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>1.968998114338261</v>
+        <v>0.7154661794051446</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -987,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>0.2230437444203479</v>
+        <v>0.8678546348255542</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>0.2230437444203479</v>
+        <v>0.7154661794051446</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1021,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>0.2230437444203479</v>
+        <v>0.7154661794051446</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1038,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>1.085804292552881</v>
+        <v>0.7154661794051446</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>1.968998114338261</v>
+        <v>0.8678546348255542</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1.968998114338261</v>
+        <v>0.7154661794051446</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>0.2230437444203479</v>
+        <v>0.7154661794051446</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -1106,7 +1106,7 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>0.2351867235504763</v>
+        <v>0.2976721014839467</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1123,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>0.2351867235504763</v>
+        <v>0.2976721014839467</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -1140,7 +1140,7 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>0.2351867235504763</v>
+        <v>0.2976721014839467</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -1157,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>0.8078205396719706</v>
+        <v>0.2976721014839467</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -1174,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>0.2351867235504763</v>
+        <v>0.2976721014839467</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -1191,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>0.2351867235504763</v>
+        <v>0.2976721014839467</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -1208,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>0.2351867235504763</v>
+        <v>0.2976721014839467</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -1225,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>0.2351867235504763</v>
+        <v>0.2976721014839467</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>0.2351867235504763</v>
+        <v>0.2976721014839467</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0.2351867235504763</v>
+        <v>0.2976721014839467</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1276,7 +1276,7 @@
         <v>8</v>
       </c>
       <c r="C52">
-        <v>0.09788493731619008</v>
+        <v>1.250849466806033</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -1293,7 +1293,7 @@
         <v>9</v>
       </c>
       <c r="C53">
-        <v>1.385594525885468</v>
+        <v>0.9493213767933886</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -1310,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="C54">
-        <v>0.09788493731619008</v>
+        <v>0.6068057376802909</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="C55">
-        <v>0.09788493731619008</v>
+        <v>0.6068057376802909</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1344,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>1.385594525885468</v>
+        <v>0.6068057376802909</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>1.385594525885468</v>
+        <v>0.6068057376802909</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>0.09788493731619008</v>
+        <v>0.6068057376802909</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>1.385594525885468</v>
+        <v>0.6068057376802909</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>1.385594525885468</v>
+        <v>1.250849466806033</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -1429,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>1.325798334648368</v>
+        <v>0.6068057376802909</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -1446,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="C62">
-        <v>1.690362740476868</v>
+        <v>0.948604056288525</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1463,7 +1463,7 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>1.690362740476868</v>
+        <v>0.948604056288525</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -1480,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="C64">
-        <v>1.690362740476868</v>
+        <v>0.948604056288525</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -1497,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="C65">
-        <v>1.690362740476868</v>
+        <v>0.948604056288525</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -1514,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>1.690362740476868</v>
+        <v>0.948604056288525</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -1531,7 +1531,7 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>1.690362740476868</v>
+        <v>0.948604056288525</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -1548,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>1.690362740476868</v>
+        <v>0.948604056288525</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1.690362740476868</v>
+        <v>0.9752554906544326</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>1.690362740476868</v>
+        <v>0.948604056288525</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
@@ -1599,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="C71">
-        <v>1.320909858601547</v>
+        <v>0.7191087617149731</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1616,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="C72">
-        <v>1.357833116443348</v>
+        <v>1.334425360972076</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>1.357833116443348</v>
+        <v>1.334425360972076</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>1.180306639645185</v>
+        <v>1.334425360972076</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1667,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>1.599342180216095</v>
+        <v>1.334425360972076</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
@@ -1684,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>1.357833116443348</v>
+        <v>1.334425360972076</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -1701,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>1.180306639645185</v>
+        <v>1.334425360972076</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -1718,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="C78">
-        <v>1.180306639645185</v>
+        <v>1.304167518139912</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -1735,7 +1735,7 @@
         <v>6</v>
       </c>
       <c r="C79">
-        <v>1.357833116443348</v>
+        <v>0.7992224602930628</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -1752,7 +1752,7 @@
         <v>7</v>
       </c>
       <c r="C80">
-        <v>1.357833116443348</v>
+        <v>0.05913161895796648</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
@@ -1769,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>1.180306639645185</v>
+        <v>1.334425360972076</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>1.087473642016287</v>
+        <v>0.09844400424816024</v>
       </c>
       <c r="D82" t="s">
         <v>6</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>1.087473642016287</v>
+        <v>0.09844400424816024</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
@@ -1820,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <v>1.087473642016287</v>
+        <v>0.09844400424816024</v>
       </c>
       <c r="D84" t="s">
         <v>6</v>
@@ -1837,7 +1837,7 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>0.4225083492653603</v>
+        <v>1.564443808907544</v>
       </c>
       <c r="D85" t="s">
         <v>6</v>
@@ -1854,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="C86">
-        <v>1.087473642016287</v>
+        <v>1.564443808907544</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
@@ -1871,7 +1871,7 @@
         <v>5</v>
       </c>
       <c r="C87">
-        <v>1.087473642016287</v>
+        <v>0.09844400424816024</v>
       </c>
       <c r="D87" t="s">
         <v>6</v>
@@ -1888,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="C88">
-        <v>0.7424293616884976</v>
+        <v>1.564443808907544</v>
       </c>
       <c r="D88" t="s">
         <v>6</v>
@@ -1905,7 +1905,7 @@
         <v>7</v>
       </c>
       <c r="C89">
-        <v>1.087473642016287</v>
+        <v>1.564443808907544</v>
       </c>
       <c r="D89" t="s">
         <v>6</v>
@@ -1922,7 +1922,7 @@
         <v>8</v>
       </c>
       <c r="C90">
-        <v>1.087473642016287</v>
+        <v>1.564443808907544</v>
       </c>
       <c r="D90" t="s">
         <v>6</v>
@@ -1939,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>0.4225083492653603</v>
+        <v>1.105769231768666</v>
       </c>
       <c r="D91" t="s">
         <v>6</v>
@@ -1956,7 +1956,7 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>1.190128538202861</v>
+        <v>1.094620682264958</v>
       </c>
       <c r="D92" t="s">
         <v>6</v>
@@ -1973,7 +1973,7 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>1.190128538202861</v>
+        <v>1.094620682264958</v>
       </c>
       <c r="D93" t="s">
         <v>6</v>
@@ -1990,7 +1990,7 @@
         <v>7</v>
       </c>
       <c r="C94">
-        <v>1.190128538202861</v>
+        <v>1.094620682264958</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
@@ -2007,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="C95">
-        <v>1.190128538202861</v>
+        <v>1.490662097948747</v>
       </c>
       <c r="D95" t="s">
         <v>6</v>
@@ -2024,7 +2024,7 @@
         <v>6</v>
       </c>
       <c r="C96">
-        <v>1.190128538202861</v>
+        <v>1.771587509265161</v>
       </c>
       <c r="D96" t="s">
         <v>6</v>
@@ -2041,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>1.996431764699974</v>
+        <v>1.771587509265161</v>
       </c>
       <c r="D97" t="s">
         <v>6</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="C98">
-        <v>1.190128538202861</v>
+        <v>1.094620682264958</v>
       </c>
       <c r="D98" t="s">
         <v>6</v>
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>1.190128538202861</v>
+        <v>1.094620682264958</v>
       </c>
       <c r="D99" t="s">
         <v>6</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>1.621850570183688</v>
+        <v>1.490662097948747</v>
       </c>
       <c r="D100" t="s">
         <v>6</v>
@@ -2109,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>1.190128538202861</v>
+        <v>1.094620682264958</v>
       </c>
       <c r="D101" t="s">
         <v>6</v>
@@ -2126,7 +2126,7 @@
         <v>9</v>
       </c>
       <c r="C102">
-        <v>1.419666866275065</v>
+        <v>0.1061649455320766</v>
       </c>
       <c r="D102" t="s">
         <v>6</v>
@@ -2143,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="C103">
-        <v>0.1701653711023796</v>
+        <v>0.1061649455320766</v>
       </c>
       <c r="D103" t="s">
         <v>6</v>
@@ -2160,7 +2160,7 @@
         <v>7</v>
       </c>
       <c r="C104">
-        <v>0.1701653711023796</v>
+        <v>0.1678122632268986</v>
       </c>
       <c r="D104" t="s">
         <v>6</v>
@@ -2177,7 +2177,7 @@
         <v>6</v>
       </c>
       <c r="C105">
-        <v>0.1701653711023796</v>
+        <v>0.2294595809217206</v>
       </c>
       <c r="D105" t="s">
         <v>6</v>
@@ -2194,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="C106">
-        <v>1.154782238308393</v>
+        <v>0.1061649455320766</v>
       </c>
       <c r="D106" t="s">
         <v>6</v>
@@ -2211,7 +2211,7 @@
         <v>4</v>
       </c>
       <c r="C107">
-        <v>1.154782238308393</v>
+        <v>0.1061649455320766</v>
       </c>
       <c r="D107" t="s">
         <v>6</v>
@@ -2228,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="C108">
-        <v>1.154782238308393</v>
+        <v>0.1061649455320766</v>
       </c>
       <c r="D108" t="s">
         <v>6</v>
@@ -2245,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="C109">
-        <v>0.1701653711023796</v>
+        <v>0.1678122632268986</v>
       </c>
       <c r="D109" t="s">
         <v>6</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>0.1701653711023796</v>
+        <v>0.1061649455320766</v>
       </c>
       <c r="D110" t="s">
         <v>6</v>
@@ -2279,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>1.481488505009916</v>
+        <v>0.2294595809217206</v>
       </c>
       <c r="D111" t="s">
         <v>6</v>
@@ -2296,7 +2296,7 @@
         <v>6</v>
       </c>
       <c r="C112">
-        <v>0.4305132128574662</v>
+        <v>0.769528945127266</v>
       </c>
       <c r="D112" t="s">
         <v>6</v>
@@ -2313,7 +2313,7 @@
         <v>8</v>
       </c>
       <c r="C113">
-        <v>0.4305132128574662</v>
+        <v>0.769528945127266</v>
       </c>
       <c r="D113" t="s">
         <v>6</v>
@@ -2330,7 +2330,7 @@
         <v>7</v>
       </c>
       <c r="C114">
-        <v>1.953217833241768</v>
+        <v>0.769528945127266</v>
       </c>
       <c r="D114" t="s">
         <v>6</v>
@@ -2347,7 +2347,7 @@
         <v>5</v>
       </c>
       <c r="C115">
-        <v>1.708480971449956</v>
+        <v>0.1722794803286156</v>
       </c>
       <c r="D115" t="s">
         <v>6</v>
@@ -2364,7 +2364,7 @@
         <v>9</v>
       </c>
       <c r="C116">
-        <v>0.4305132128574662</v>
+        <v>0.769528945127266</v>
       </c>
       <c r="D116" t="s">
         <v>6</v>
@@ -2381,7 +2381,7 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>0.4305132128574662</v>
+        <v>0.1722794803286156</v>
       </c>
       <c r="D117" t="s">
         <v>6</v>
@@ -2398,7 +2398,7 @@
         <v>2</v>
       </c>
       <c r="C118">
-        <v>1.708480971449956</v>
+        <v>0.1722794803286156</v>
       </c>
       <c r="D118" t="s">
         <v>6</v>
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>0.4305132128574662</v>
+        <v>0.1722794803286156</v>
       </c>
       <c r="D119" t="s">
         <v>6</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>1.953217833241768</v>
+        <v>0.1722794803286156</v>
       </c>
       <c r="D120" t="s">
         <v>6</v>
@@ -2449,7 +2449,7 @@
         <v>4</v>
       </c>
       <c r="C121">
-        <v>0.4305132128574662</v>
+        <v>1.028713808878537</v>
       </c>
       <c r="D121" t="s">
         <v>6</v>
@@ -2466,7 +2466,7 @@
         <v>9</v>
       </c>
       <c r="C122">
-        <v>1.162142784928881</v>
+        <v>0.3613857701038652</v>
       </c>
       <c r="D122" t="s">
         <v>6</v>
@@ -2483,7 +2483,7 @@
         <v>8</v>
       </c>
       <c r="C123">
-        <v>1.162142784928881</v>
+        <v>0.3613857701038652</v>
       </c>
       <c r="D123" t="s">
         <v>6</v>
@@ -2500,7 +2500,7 @@
         <v>7</v>
       </c>
       <c r="C124">
-        <v>0.4112391690767656</v>
+        <v>0.3613857701038652</v>
       </c>
       <c r="D124" t="s">
         <v>6</v>
@@ -2517,7 +2517,7 @@
         <v>6</v>
       </c>
       <c r="C125">
-        <v>1.050718669019351</v>
+        <v>0.5056288480096183</v>
       </c>
       <c r="D125" t="s">
         <v>6</v>
@@ -2534,7 +2534,7 @@
         <v>5</v>
       </c>
       <c r="C126">
-        <v>0.6950743548814715</v>
+        <v>0.5056288480096183</v>
       </c>
       <c r="D126" t="s">
         <v>6</v>
@@ -2551,7 +2551,7 @@
         <v>4</v>
       </c>
       <c r="C127">
-        <v>1.162142784928881</v>
+        <v>0.5056288480096183</v>
       </c>
       <c r="D127" t="s">
         <v>6</v>
@@ -2568,7 +2568,7 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>1.162142784928881</v>
+        <v>0.3613857701038652</v>
       </c>
       <c r="D128" t="s">
         <v>6</v>
@@ -2585,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="C129">
-        <v>1.162142784928881</v>
+        <v>0.5056288480096183</v>
       </c>
       <c r="D129" t="s">
         <v>6</v>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="C130">
-        <v>0.6950743548814715</v>
+        <v>0.5056288480096183</v>
       </c>
       <c r="D130" t="s">
         <v>6</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>1.162142784928881</v>
+        <v>0.3613857701038652</v>
       </c>
       <c r="D131" t="s">
         <v>6</v>
@@ -2636,7 +2636,7 @@
         <v>8</v>
       </c>
       <c r="C132">
-        <v>0.9545057069722576</v>
+        <v>0.7688182145000533</v>
       </c>
       <c r="D132" t="s">
         <v>6</v>
@@ -2653,7 +2653,7 @@
         <v>9</v>
       </c>
       <c r="C133">
-        <v>0.0811343803484752</v>
+        <v>0.7688182145000533</v>
       </c>
       <c r="D133" t="s">
         <v>6</v>
@@ -2670,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="C134">
-        <v>1.653354749618216</v>
+        <v>0.7688182145000533</v>
       </c>
       <c r="D134" t="s">
         <v>6</v>
@@ -2687,7 +2687,7 @@
         <v>5</v>
       </c>
       <c r="C135">
-        <v>1.653354749618216</v>
+        <v>0.7243289986043933</v>
       </c>
       <c r="D135" t="s">
         <v>6</v>
@@ -2704,7 +2704,7 @@
         <v>7</v>
       </c>
       <c r="C136">
-        <v>0.0811343803484752</v>
+        <v>0.7688182145000533</v>
       </c>
       <c r="D136" t="s">
         <v>6</v>
@@ -2721,7 +2721,7 @@
         <v>3</v>
       </c>
       <c r="C137">
-        <v>0.0811343803484752</v>
+        <v>0.7688182145000533</v>
       </c>
       <c r="D137" t="s">
         <v>6</v>
@@ -2738,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="C138">
-        <v>0.9545057069722576</v>
+        <v>0.7688182145000533</v>
       </c>
       <c r="D138" t="s">
         <v>6</v>
@@ -2755,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>0.9545057069722576</v>
+        <v>0.7688182145000533</v>
       </c>
       <c r="D139" t="s">
         <v>6</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>1.653354749618216</v>
+        <v>0.7688182145000533</v>
       </c>
       <c r="D140" t="s">
         <v>6</v>
@@ -2789,7 +2789,7 @@
         <v>4</v>
       </c>
       <c r="C141">
-        <v>0.9545057069722576</v>
+        <v>0.7243289986043933</v>
       </c>
       <c r="D141" t="s">
         <v>6</v>
@@ -2806,7 +2806,7 @@
         <v>9</v>
       </c>
       <c r="C142">
-        <v>1.362951232692299</v>
+        <v>1.29148298320515</v>
       </c>
       <c r="D142" t="s">
         <v>6</v>
@@ -2823,7 +2823,7 @@
         <v>8</v>
       </c>
       <c r="C143">
-        <v>1.575311999699375</v>
+        <v>1.29148298320515</v>
       </c>
       <c r="D143" t="s">
         <v>6</v>
@@ -2840,7 +2840,7 @@
         <v>6</v>
       </c>
       <c r="C144">
-        <v>1.362951232692299</v>
+        <v>1.29148298320515</v>
       </c>
       <c r="D144" t="s">
         <v>6</v>
@@ -2857,7 +2857,7 @@
         <v>5</v>
       </c>
       <c r="C145">
-        <v>1.362951232692299</v>
+        <v>1.29148298320515</v>
       </c>
       <c r="D145" t="s">
         <v>6</v>
@@ -2874,7 +2874,7 @@
         <v>7</v>
       </c>
       <c r="C146">
-        <v>1.362951232692299</v>
+        <v>0.6213023725735973</v>
       </c>
       <c r="D146" t="s">
         <v>6</v>
@@ -2891,7 +2891,7 @@
         <v>3</v>
       </c>
       <c r="C147">
-        <v>1.362951232692299</v>
+        <v>0.6213023725735973</v>
       </c>
       <c r="D147" t="s">
         <v>6</v>
@@ -2908,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="C148">
-        <v>1.362951232692299</v>
+        <v>0.6213023725735973</v>
       </c>
       <c r="D148" t="s">
         <v>6</v>
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>1.362951232692299</v>
+        <v>1.29148298320515</v>
       </c>
       <c r="D149" t="s">
         <v>6</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>1.362951232692299</v>
+        <v>1.29148298320515</v>
       </c>
       <c r="D150" t="s">
         <v>6</v>
@@ -2959,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="C151">
-        <v>1.957756855384517</v>
+        <v>0.6213023725735973</v>
       </c>
       <c r="D151" t="s">
         <v>6</v>
@@ -2976,7 +2976,7 @@
         <v>8</v>
       </c>
       <c r="C152">
-        <v>0.09525635008359346</v>
+        <v>0.2737134055777066</v>
       </c>
       <c r="D152" t="s">
         <v>6</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>1.023859469007476</v>
+        <v>1.749395201274022</v>
       </c>
       <c r="D153" t="s">
         <v>6</v>
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="C154">
-        <v>1.470072581065581</v>
+        <v>0.2737134055777066</v>
       </c>
       <c r="D154" t="s">
         <v>6</v>
@@ -3027,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="C155">
-        <v>0.09525635008359346</v>
+        <v>0.2737134055777066</v>
       </c>
       <c r="D155" t="s">
         <v>6</v>
@@ -3044,7 +3044,7 @@
         <v>3</v>
       </c>
       <c r="C156">
-        <v>1.023859469007476</v>
+        <v>1.749395201274022</v>
       </c>
       <c r="D156" t="s">
         <v>6</v>
@@ -3061,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="C157">
-        <v>1.470072581065581</v>
+        <v>0.2737134055777066</v>
       </c>
       <c r="D157" t="s">
         <v>6</v>
@@ -3078,7 +3078,7 @@
         <v>5</v>
       </c>
       <c r="C158">
-        <v>1.470072581065581</v>
+        <v>0.3019916695790015</v>
       </c>
       <c r="D158" t="s">
         <v>6</v>
@@ -3095,7 +3095,7 @@
         <v>6</v>
       </c>
       <c r="C159">
-        <v>1.470072581065581</v>
+        <v>0.2737134055777066</v>
       </c>
       <c r="D159" t="s">
         <v>6</v>
@@ -3112,7 +3112,7 @@
         <v>7</v>
       </c>
       <c r="C160">
-        <v>1.320791529168237</v>
+        <v>0.2737134055777066</v>
       </c>
       <c r="D160" t="s">
         <v>6</v>
@@ -3129,7 +3129,7 @@
         <v>9</v>
       </c>
       <c r="C161">
-        <v>1.320791529168237</v>
+        <v>0.2737134055777066</v>
       </c>
       <c r="D161" t="s">
         <v>6</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <v>0.1557422479321098</v>
+        <v>0.4470825804068321</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>1.961580548762673</v>
+        <v>0.1764965206460367</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
@@ -3180,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="C164">
-        <v>0.3554790562656414</v>
+        <v>0.4470825804068321</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
@@ -3197,7 +3197,7 @@
         <v>3</v>
       </c>
       <c r="C165">
-        <v>0.3554790562656414</v>
+        <v>0.1764965206460367</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
@@ -3214,7 +3214,7 @@
         <v>4</v>
       </c>
       <c r="C166">
-        <v>0.2671344973442116</v>
+        <v>0.4470825804068321</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
@@ -3231,7 +3231,7 @@
         <v>5</v>
       </c>
       <c r="C167">
-        <v>0.3554790562656414</v>
+        <v>0.1764965206460367</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
@@ -3248,7 +3248,7 @@
         <v>6</v>
       </c>
       <c r="C168">
-        <v>0.2671344973442116</v>
+        <v>1.484386336812505</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
@@ -3265,7 +3265,7 @@
         <v>7</v>
       </c>
       <c r="C169">
-        <v>0.3554790562656414</v>
+        <v>1.484386336812505</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
@@ -3282,7 +3282,7 @@
         <v>8</v>
       </c>
       <c r="C170">
-        <v>0.3554790562656414</v>
+        <v>1.484386336812505</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
@@ -3299,7 +3299,7 @@
         <v>9</v>
       </c>
       <c r="C171">
-        <v>1.961580548762673</v>
+        <v>0.1764965206460367</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
@@ -3316,7 +3316,7 @@
         <v>9</v>
       </c>
       <c r="C172">
-        <v>0.5352063504026252</v>
+        <v>1.728904688598656</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
@@ -3333,7 +3333,7 @@
         <v>8</v>
       </c>
       <c r="C173">
-        <v>0.5352063504026252</v>
+        <v>1.846830383275548</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
@@ -3350,7 +3350,7 @@
         <v>7</v>
       </c>
       <c r="C174">
-        <v>1.523695785853779</v>
+        <v>1.442192857077515</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -3367,7 +3367,7 @@
         <v>5</v>
       </c>
       <c r="C175">
-        <v>0.5352063504026252</v>
+        <v>1.442192857077515</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
@@ -3384,7 +3384,7 @@
         <v>6</v>
       </c>
       <c r="C176">
-        <v>0.5352063504026252</v>
+        <v>1.442192857077515</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
@@ -3401,7 +3401,7 @@
         <v>3</v>
       </c>
       <c r="C177">
-        <v>1.523695785853779</v>
+        <v>1.846830383275548</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
@@ -3418,7 +3418,7 @@
         <v>2</v>
       </c>
       <c r="C178">
-        <v>1.523695785853779</v>
+        <v>0.4242436642503844</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="C179">
-        <v>1.523695785853779</v>
+        <v>1.442192857077515</v>
       </c>
       <c r="D179" t="s">
         <v>7</v>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>0.1079206736283203</v>
+        <v>1.728904688598656</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -3469,7 +3469,7 @@
         <v>4</v>
       </c>
       <c r="C181">
-        <v>1.523695785853779</v>
+        <v>1.442192857077515</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
@@ -3486,7 +3486,7 @@
         <v>9</v>
       </c>
       <c r="C182">
-        <v>1.872053760866286</v>
+        <v>1.381999592730299</v>
       </c>
       <c r="D182" t="s">
         <v>7</v>
@@ -3503,7 +3503,7 @@
         <v>8</v>
       </c>
       <c r="C183">
-        <v>1.872053760866286</v>
+        <v>0.6809680032557981</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
@@ -3520,7 +3520,7 @@
         <v>7</v>
       </c>
       <c r="C184">
-        <v>1.872053760866286</v>
+        <v>0.6809680032557981</v>
       </c>
       <c r="D184" t="s">
         <v>7</v>
@@ -3537,7 +3537,7 @@
         <v>6</v>
       </c>
       <c r="C185">
-        <v>1.872053760866286</v>
+        <v>1.381999592730299</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
@@ -3554,7 +3554,7 @@
         <v>5</v>
       </c>
       <c r="C186">
-        <v>1.586602368997694</v>
+        <v>1.381999592730299</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
@@ -3571,7 +3571,7 @@
         <v>4</v>
       </c>
       <c r="C187">
-        <v>1.872053760866286</v>
+        <v>1.381999592730299</v>
       </c>
       <c r="D187" t="s">
         <v>7</v>
@@ -3588,7 +3588,7 @@
         <v>2</v>
       </c>
       <c r="C188">
-        <v>1.872053760866286</v>
+        <v>0.6809680032557981</v>
       </c>
       <c r="D188" t="s">
         <v>7</v>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="C189">
-        <v>1.301150977129102</v>
+        <v>1.381999592730299</v>
       </c>
       <c r="D189" t="s">
         <v>7</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>1.301150977129102</v>
+        <v>1.381999592730299</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
@@ -3639,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="C191">
-        <v>1.586602368997694</v>
+        <v>1.381999592730299</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
@@ -3656,7 +3656,7 @@
         <v>6</v>
       </c>
       <c r="C192">
-        <v>0.4372534145611449</v>
+        <v>0.1294349372098007</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
@@ -3673,7 +3673,7 @@
         <v>8</v>
       </c>
       <c r="C193">
-        <v>1.670936068299927</v>
+        <v>0.1294349372098007</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
@@ -3690,7 +3690,7 @@
         <v>7</v>
       </c>
       <c r="C194">
-        <v>0.4372534145611449</v>
+        <v>0.2994002638781514</v>
       </c>
       <c r="D194" t="s">
         <v>7</v>
@@ -3707,7 +3707,7 @@
         <v>5</v>
       </c>
       <c r="C195">
-        <v>1.670936068299927</v>
+        <v>0.2994002638781514</v>
       </c>
       <c r="D195" t="s">
         <v>7</v>
@@ -3724,7 +3724,7 @@
         <v>9</v>
       </c>
       <c r="C196">
-        <v>0.4372534145611449</v>
+        <v>0.1294349372098007</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
@@ -3741,7 +3741,7 @@
         <v>3</v>
       </c>
       <c r="C197">
-        <v>0.4372534145611449</v>
+        <v>0.2994002638781514</v>
       </c>
       <c r="D197" t="s">
         <v>7</v>
@@ -3758,7 +3758,7 @@
         <v>2</v>
       </c>
       <c r="C198">
-        <v>1.670936068299927</v>
+        <v>0.2994002638781514</v>
       </c>
       <c r="D198" t="s">
         <v>7</v>
@@ -3775,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="C199">
-        <v>0.4372534145611449</v>
+        <v>0.2994002638781514</v>
       </c>
       <c r="D199" t="s">
         <v>7</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="C200">
-        <v>0.4372534145611449</v>
+        <v>0.1294349372098007</v>
       </c>
       <c r="D200" t="s">
         <v>7</v>
@@ -3809,7 +3809,7 @@
         <v>4</v>
       </c>
       <c r="C201">
-        <v>0.4372534145611449</v>
+        <v>0.2994002638781514</v>
       </c>
       <c r="D201" t="s">
         <v>7</v>
@@ -3826,7 +3826,7 @@
         <v>9</v>
       </c>
       <c r="C202">
-        <v>0.7000400576038781</v>
+        <v>1.574198697837264</v>
       </c>
       <c r="D202" t="s">
         <v>7</v>
@@ -3843,7 +3843,7 @@
         <v>8</v>
       </c>
       <c r="C203">
-        <v>1.623545156854153</v>
+        <v>1.356986885432173</v>
       </c>
       <c r="D203" t="s">
         <v>7</v>
@@ -3860,7 +3860,7 @@
         <v>7</v>
       </c>
       <c r="C204">
-        <v>1.623545156854153</v>
+        <v>1.574198697837264</v>
       </c>
       <c r="D204" t="s">
         <v>7</v>
@@ -3877,7 +3877,7 @@
         <v>6</v>
       </c>
       <c r="C205">
-        <v>1.82317387169233</v>
+        <v>1.574198697837264</v>
       </c>
       <c r="D205" t="s">
         <v>7</v>
@@ -3894,7 +3894,7 @@
         <v>5</v>
       </c>
       <c r="C206">
-        <v>1.623545156854153</v>
+        <v>1.356986885432173</v>
       </c>
       <c r="D206" t="s">
         <v>7</v>
@@ -3911,7 +3911,7 @@
         <v>4</v>
       </c>
       <c r="C207">
-        <v>1.82317387169233</v>
+        <v>1.612998193538081</v>
       </c>
       <c r="D207" t="s">
         <v>7</v>
@@ -3928,7 +3928,7 @@
         <v>3</v>
       </c>
       <c r="C208">
-        <v>1.82317387169233</v>
+        <v>1.612998193538081</v>
       </c>
       <c r="D208" t="s">
         <v>7</v>
@@ -3945,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="C209">
-        <v>1.43049288920629</v>
+        <v>1.612998193538081</v>
       </c>
       <c r="D209" t="s">
         <v>7</v>
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="C210">
-        <v>1.43049288920629</v>
+        <v>1.612998193538081</v>
       </c>
       <c r="D210" t="s">
         <v>7</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C211">
-        <v>1.82317387169233</v>
+        <v>1.356986885432173</v>
       </c>
       <c r="D211" t="s">
         <v>7</v>
@@ -3996,7 +3996,7 @@
         <v>8</v>
       </c>
       <c r="C212">
-        <v>1.017143369391355</v>
+        <v>1.095374155359938</v>
       </c>
       <c r="D212" t="s">
         <v>7</v>
@@ -4013,7 +4013,7 @@
         <v>9</v>
       </c>
       <c r="C213">
-        <v>0.9842675474190163</v>
+        <v>0.2835982758757762</v>
       </c>
       <c r="D213" t="s">
         <v>7</v>
@@ -4030,7 +4030,7 @@
         <v>6</v>
       </c>
       <c r="C214">
-        <v>0.9842675474190163</v>
+        <v>0.2835982758757762</v>
       </c>
       <c r="D214" t="s">
         <v>7</v>
@@ -4047,7 +4047,7 @@
         <v>5</v>
       </c>
       <c r="C215">
-        <v>0.9842675474190163</v>
+        <v>0.2835982758757762</v>
       </c>
       <c r="D215" t="s">
         <v>7</v>
@@ -4064,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="C216">
-        <v>0.9842675474190163</v>
+        <v>0.2835982758757762</v>
       </c>
       <c r="D216" t="s">
         <v>7</v>
@@ -4081,7 +4081,7 @@
         <v>3</v>
       </c>
       <c r="C217">
-        <v>1.017143369391355</v>
+        <v>0.2835982758757762</v>
       </c>
       <c r="D217" t="s">
         <v>7</v>
@@ -4098,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="C218">
-        <v>0.9842675474190163</v>
+        <v>0.5869006002596928</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
@@ -4115,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="C219">
-        <v>0.9842675474190163</v>
+        <v>0.2835982758757762</v>
       </c>
       <c r="D219" t="s">
         <v>7</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="C220">
-        <v>0.9842675474190163</v>
+        <v>0.5869006002596928</v>
       </c>
       <c r="D220" t="s">
         <v>7</v>
@@ -4149,7 +4149,7 @@
         <v>4</v>
       </c>
       <c r="C221">
-        <v>0.9842675474190163</v>
+        <v>0.2835982758757762</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
@@ -4166,7 +4166,7 @@
         <v>9</v>
       </c>
       <c r="C222">
-        <v>0.04570591593432427</v>
+        <v>0.5982628307857643</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
@@ -4183,7 +4183,7 @@
         <v>8</v>
       </c>
       <c r="C223">
-        <v>1.871732597053949</v>
+        <v>1.032677133045059</v>
       </c>
       <c r="D223" t="s">
         <v>7</v>
@@ -4200,7 +4200,7 @@
         <v>6</v>
       </c>
       <c r="C224">
-        <v>0.04570591593432427</v>
+        <v>0.4900733820037022</v>
       </c>
       <c r="D224" t="s">
         <v>7</v>
@@ -4217,7 +4217,7 @@
         <v>5</v>
       </c>
       <c r="C225">
-        <v>1.871732597053949</v>
+        <v>0.5982628307857643</v>
       </c>
       <c r="D225" t="s">
         <v>7</v>
@@ -4234,7 +4234,7 @@
         <v>7</v>
       </c>
       <c r="C226">
-        <v>1.871732597053949</v>
+        <v>0.5982628307857643</v>
       </c>
       <c r="D226" t="s">
         <v>7</v>
@@ -4251,7 +4251,7 @@
         <v>3</v>
       </c>
       <c r="C227">
-        <v>1.871732597053949</v>
+        <v>0.5982628307857643</v>
       </c>
       <c r="D227" t="s">
         <v>7</v>
@@ -4268,7 +4268,7 @@
         <v>2</v>
       </c>
       <c r="C228">
-        <v>0.04570591593432427</v>
+        <v>0.5982628307857643</v>
       </c>
       <c r="D228" t="s">
         <v>7</v>
@@ -4285,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="C229">
-        <v>0.04570591593432427</v>
+        <v>0.5982628307857643</v>
       </c>
       <c r="D229" t="s">
         <v>7</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="C230">
-        <v>1.020581189079141</v>
+        <v>0.5982628307857643</v>
       </c>
       <c r="D230" t="s">
         <v>7</v>
@@ -4319,7 +4319,7 @@
         <v>4</v>
       </c>
       <c r="C231">
-        <v>1.871732597053949</v>
+        <v>0.4900733820037022</v>
       </c>
       <c r="D231" t="s">
         <v>7</v>
@@ -4336,7 +4336,7 @@
         <v>8</v>
       </c>
       <c r="C232">
-        <v>0.1720556903309201</v>
+        <v>1.270510473789301</v>
       </c>
       <c r="D232" t="s">
         <v>7</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="C233">
-        <v>0.1720556903309201</v>
+        <v>1.270510473789301</v>
       </c>
       <c r="D233" t="s">
         <v>7</v>
@@ -4370,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="C234">
-        <v>1.127580091051356</v>
+        <v>0.2459526686105564</v>
       </c>
       <c r="D234" t="s">
         <v>7</v>
@@ -4387,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="C235">
-        <v>0.1720556903309201</v>
+        <v>0.06211859153558641</v>
       </c>
       <c r="D235" t="s">
         <v>7</v>
@@ -4404,7 +4404,7 @@
         <v>3</v>
       </c>
       <c r="C236">
-        <v>0.1720556903309201</v>
+        <v>0.06211859153558641</v>
       </c>
       <c r="D236" t="s">
         <v>7</v>
@@ -4421,7 +4421,7 @@
         <v>4</v>
       </c>
       <c r="C237">
-        <v>0.1720556903309201</v>
+        <v>1.270510473789301</v>
       </c>
       <c r="D237" t="s">
         <v>7</v>
@@ -4438,7 +4438,7 @@
         <v>5</v>
       </c>
       <c r="C238">
-        <v>0.1720556903309201</v>
+        <v>1.270510473789301</v>
       </c>
       <c r="D238" t="s">
         <v>7</v>
@@ -4455,7 +4455,7 @@
         <v>6</v>
       </c>
       <c r="C239">
-        <v>1.047953473074091</v>
+        <v>0.06211859153558641</v>
       </c>
       <c r="D239" t="s">
         <v>7</v>
@@ -4472,7 +4472,7 @@
         <v>7</v>
       </c>
       <c r="C240">
-        <v>0.5027904011672466</v>
+        <v>0.06211859153558641</v>
       </c>
       <c r="D240" t="s">
         <v>7</v>
@@ -4489,7 +4489,7 @@
         <v>9</v>
       </c>
       <c r="C241">
-        <v>0.1720556903309201</v>
+        <v>0.06211859153558641</v>
       </c>
       <c r="D241" t="s">
         <v>7</v>
